--- a/util/periodic_table.xlsx
+++ b/util/periodic_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xzhang1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B543B2-6B42-4998-9411-D21C5FD79D77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2663B-4182-45D7-94DE-3BA6D2E8A0E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="588">
   <si>
     <t>H</t>
   </si>
@@ -180,738 +180,15 @@
     <t>Cm</t>
   </si>
   <si>
-    <t xml:space="preserve">    number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    eleneg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  eleaffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    covrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    atmrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    vdwrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     tboil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     tmelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     eleconfig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     oxistates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                           ionenergy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ldauu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ldauj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                               ldaucomment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    magmom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  magmomcomment</t>
-  </si>
-  <si>
     <t>pot</t>
   </si>
   <si>
     <t>pot_encut</t>
   </si>
   <si>
-    <t xml:space="preserve">       H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      He</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Zr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Nb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Tc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Xe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Gd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Tb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Dy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Er</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Tm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Yb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Tl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Po</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      At</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Np</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Pu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Fm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hydrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Helium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Lithium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Beryllium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Boron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Fluorine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Neon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Sodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Magnesium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Aluminium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Silicon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Phosphorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Sulfur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Chlorine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Argon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Potassium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Calcium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Scandium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Vanadium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Chromium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Manganese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Nickel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Zinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Gallium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Germanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Arsenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Krypton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Rubidium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Strontium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Yttrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Zirconium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Niobium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Molybdenum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Technetium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ruthenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rhodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Palladium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Cadmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Indium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Antimony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Tellurium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Iodine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Xenon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Caesium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Barium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Lanthanum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Cerium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Praseodymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Neodymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Promethium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Samarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Europium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Gadolinium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Terbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Dysprosium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Holmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Erbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Thulium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ytterbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Lutetium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hafnium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Tantalum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Tungsten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Rhenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Osmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Iridium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Mercury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Thallium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bismuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Polonium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Astatine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Radon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Francium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Radium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Actinium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Thorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protactinium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Uranium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Neptunium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Plutonium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Americium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Curium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Berkelium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Californium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Einsteinium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Fermium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mendelevium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Nobelium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Lawrencium</t>
-  </si>
-  <si>
     <t>Rutherfordium</t>
   </si>
   <si>
-    <t xml:space="preserve">      Dubnium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Seaborgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Bohrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Hassium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Meitnerium</t>
-  </si>
-  <si>
     <t xml:space="preserve">       s</t>
   </si>
   <si>
@@ -924,885 +201,6 @@
     <t xml:space="preserve">       f</t>
   </si>
   <si>
-    <t xml:space="preserve">                          1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         1s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [He] 2s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [He] 2s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [He] 2s2 2p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [He] 2s2 2p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [He] 2s2 2p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [He] 2s2 2p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [He] 2s2 2p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [He] 2s2 2p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [Ne] 3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [Ne] 3s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Ne] 3s2 3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ne] 3s2 3p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ne] 3s2 3p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ne] 3s2 3p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ne] 3s2 3p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ne] 3s2 3p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [Ar] 4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [Ar] 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Ar] 3d 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d2 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d3 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Ar] 3d5 4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d5 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d6 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d7 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d8 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Ar] 3d10 4s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Ar] 3d10 4s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [Ar] 3d10 4s2 4p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Ar] 3d10 4s2 4p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Ar] 3d10 4s2 4p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Ar] 3d10 4s2 4p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Ar] 3d10 4s2 4p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Ar] 3d10 4s2 4p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [Kr] 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [Kr] 5s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Kr] 4d 5s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Kr] 4d2 5s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Kr] 4d4 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Kr] 4d5 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Kr] 4d5 5s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Kr] 4d7 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Kr] 4d8 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   [Kr] 4d10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Kr] 4d10 5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Kr] 4d10 5s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [Kr] 4d10 5s2 5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Kr] 4d10 5s2 5p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Kr] 4d10 5s2 5p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Kr] 4d10 5s2 5p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Kr] 4d10 5s2 5p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Kr] 4d10 5s2 5p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [Xe] 6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [Xe] 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Xe] 5d 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              [Xe] 4f 5d 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f3 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f4 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f5 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f6 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f7 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             [Xe] 4f7 5d 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Xe] 4f9 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Xe] 4f10 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Xe] 4f11 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Xe] 4f12 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Xe] 4f13 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Xe] 4f14 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [Xe] 4f14 5d 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d2 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d3 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d4 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d5 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d6 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d7 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [Xe] 4f14 5d9 6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Xe] 4f14 5d10 6s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          [Xe] 4f14 5d10 6s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       [Xe] 4f14 5d10 6s2 6p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Xe] 4f14 5d10 6s2 6p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Xe] 4f14 5d10 6s2 6p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Xe] 4f14 5d10 6s2 6p4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Xe] 4f14 5d10 6s2 6p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      [Xe] 4f14 5d10 6s2 6p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     [Rn] 7s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    [Rn] 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 [Rn] 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Rn] 6d2 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             [Rn] 5f2 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             [Rn] 5f3 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             [Rn] 5f4 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Rn] 5f6 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Rn] 5f7 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             [Rn] 5f7 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                [Rn] 5f9 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Rn] 5f10 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Rn] 5f11 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Rn] 5f12 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Rn] 5f13 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               [Rn] 5f14 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            [Rn] 5f14 6d 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d2 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d3 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d4 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d5 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d6 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           [Rn] 5f14 6d7 7s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      1*, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                           *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          2*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          3*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  4*, 2, -4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             5, 4, 3, 2, -3*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     -2*, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         -1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      4*, -4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   5*, 3, -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                6*, 4, 2, -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             7, 5, 3, 1, -1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       4*, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              5*, 4, 3, 2, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 6, 3*, 2, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7, 6, 4, 3, 2*, 0, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             6, 3*, 2, 0, -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                3, 2*, 0, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    3, 2*, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       2*, 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          4*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   5, 3*, -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   6, 4*, -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       5*, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           6*, 5, 4, 3, 2, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          7*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      8, 6, 4*, 3*, 2, 0, -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          5, 4, 3*, 1*, 2, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    4, 2*, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       2, 1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      4*, 2*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                7, 5, 1, -1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     2, 4, 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       4, 3*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       3*, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          5*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              7, 6, 4, 2, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8, 6, 4*, 3, 2, 0, -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      6, 4*, 3, 2, 1*, 0, -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   4*, 2*, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       3*, 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       3, 1*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       4, 2*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       5, 3*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    6, 4*, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       5*, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 6*, 5, 4, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 6, 5*, 4, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 6, 5, 4*, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 6, 5, 4, 3*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       3, 2*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                         13.5984, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                 24.5874, 54.416, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                         5.3917, 75.638, 122.451, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                9.3227, 18.211, 153.893, 217.713, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                           8.298, 25.154, 37.93, 59.368, 340.217, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                               11.2603, 24.383, 47.877, 64.492, 392.077, 489.981, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                       14.5341, 39.601, 47.488, 77.472, 97.888, 522.057, 667.029, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                     13.6181, 35.116, 54.934, 54.934, 77.412, 113.896, 138.116, 739.315, 871.387, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                     17.4228, 34.97, 62.707, 87.138, 114.24, 157.161, 185.182, 953.886, 1103.089, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                               21.5645, 40.962, 63.45, 97.11, 126.21, 157.93, 207.27, 239.09, 1195.797, 1362.164, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                        5.1391, 47.286, 71.64, 98.91, 138.39, 172.15, 208.47, 264.18, 299.87, 1465.091, 1648.659, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                7.6462, 15.035, 80.143, 109.24, 141.26, 186.5, 224.94, 265.9, 327.95, 367.53, 1761.802, 1962.613, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                       5.9858, 18.828, 28.447, 119.99, 153.71, 190.47, 241.43, 284.59, 330.21, 398.57, 442.07, 2085.983, 2304.08, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                8.1517, 16.345, 33.492, 45.141, 166.77, 205.05, 246.52, 303.17, 351.1, 401.43, 476.06, 523.5, 2437.676, 2673.108, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                        10.4867, 19.725, 30.18, 51.37, 65.023, 220.43, 263.22, 309.41, 371.73, 424.5, 479.57, 560.41, 611.85, 2816.943, 3069.762, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                     10.36, 23.33, 34.83, 47.3, 72.68, 88.049, 280.93, 328.23, 379.1, 447.09, 504.78, 564.65, 651.63, 707.14, 3223.836, 3494.099, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                          12.9676, 23.81, 39.61, 53.46, 67.8, 98.03, 114.193, 348.28, 400.05, 455.62, 529.97, 591.97, 656.69, 749.75, 809.39, 3658.425, 3946.193, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               15.7596, 27.629, 40.74, 59.81, 75.02, 91.007, 124.319, 143.456, 422.44, 478.68, 538.95, 618.24, 686.09, 755.73, 854.75, 918.0, 4120.778, 4426.114, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          4.3407, 31.625, 45.72, 60.91, 82.66, 100.0, 117.56, 154.86, 175.814, 503.44, 564.13, 629.09, 714.02, 787.13, 861.77, 968.0, 1034.0, 4610.955, 4933.931, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    6.1132, 11.71, 50.908, 67.1, 84.41, 108.78, 127.7, 147.24, 188.54, 211.27, 591.25, 656.39, 726.03, 816.61, 895.12, 974.0, 1087.0, 1157.0, 5129.045, 5469.738, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                    6.5615, 12.8, 24.76, 73.47, 91.66, 11.1, 138.0, 158.7, 180.02, 225.32, 225.32, 685.89, 755.47, 829.79, 926.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                               6.8281, 13.58, 27.491, 43.266, 99.22, 119.36, 140.8, 168.5, 193.5, 193.2, 215.91, 265.23, 291.497, 787.33, 861.33, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                               6.7462, 14.65, 29.31, 46.707, 65.23, 128.12, 150.17, 173.7, 205.8, 230.5, 255.04, 308.25, 336.267, 895.58, 974.02, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                         6.7665, 16.5, 30.96, 49.1, 69.3, 90.56, 161.1, 184.7, 209.3, 244.4, 270.8, 298.0, 355.0, 384.3, 1010.64, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                 7.434, 15.64, 33.667, 51.2, 72.4, 95.0, 119.27, 196.46, 221.8, 248.3, 286.0, 314.4, 343.6, 404.0, 435.3, 1136.2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                         7.9024, 16.18, 30.651, 54.8, 75.0, 99.0, 125.0, 151.06, 235.04, 262.1, 290.4, 330.8, 361.0, 392.2, 457.0, 485.5, 1266.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                     7.881, 17.06, 33.5, 51.3, 79.5, 102.0, 129.0, 157.0, 186.13, 276.0, 305.0, 336.0, 376.0, 411.0, 444.0, 512.0, 546.8, 1403.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                            7.6398, 18.168, 35.17, 54.9, 75.5, 108.0, 133.0, 162.0, 193.0, 224.5, 321.2, 352.0, 384.0, 430.0, 464.0, 499.0, 571.0, 607.2, 1547.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     7.7264, 20.292, 26.83, 55.2, 79.9, 103.0, 139.0, 166.0, 199.0, 232.0, 266.0, 368.8, 401.0, 435.0, 484.0, 520.0, 557.0, 633.0, 671.0, 1698.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             9.3942, 17.964, 39.722, 59.4, 82.6, 108.0, 134.0, 174.0, 203.0, 238.0, 274.0, 310.8, 419.7, 454.0, 490.0, 542.0, 579.0, 619.0, 698.8, 738.0, 1856.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                      5.9993, 20.51, 30.71, 64.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                              7.8994, 15.934, 34.22, 45.71, 93.5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                     9.7886, 18.633, 28.351, 50.13, 62.63, 127.6, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                  9.7524, 21.9, 30.82, 42.944, 68.3, 81.7, 155.4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                             11.8138, 21.8, 36.0, 47.3, 59.7, 88.6, 103.0, 192.8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                  13.9996, 24.359, 36.95, 52.5, 64.7, 78.5, 110.0, 126.0, 230.39, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                4.1771, 27.28, 40.0, 52.6, 71.0, 84.4, 99.2, 136.0, 150.0, 277.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                        5.6949, 11.03, 43.6, 57.0, 71.6, 90.8, 106.0, 122.3, 162.0, 177.0, 324.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                               6.2173, 12.24, 20.52, 61.8, 77.0, 93.0, 116.0, 129.0, 146.52, 191.0, 206.0, 374.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                               6.6339, 13.13, 22.99, 34.34, 81.5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                 6.7589, 14.32, 25.04, 38.3, 50.55, 102.6, 125.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                            7.0924, 16.15, 27.16, 46.4, 61.2, 68.0, 126.8, 153.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                              7.28, 15.26, 29.54, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            7.3605, 16.76, 28.47, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            7.4589, 18.08, 31.06, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            8.3369, 19.43, 32.93, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            7.5762, 21.49, 34.83, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                           8.9938, 16.908, 37.48, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                    5.7864, 18.869, 28.03, 28.03, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                           7.3439, 14.632, 30.502, 40.734, 72.28, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                          8.6084, 16.53, 25.3, 44.2, 56.0, 108.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                  9.0096, 18.6, 27.96, 37.41, 58.75, 70.7, 137.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                           10.4513, 19.131, 33.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            12.1298, 21.21, 32.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    3.8939, 25.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                 5.2117, 100.004, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                           5.5769, 11.06, 19.175, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                      5.5387, 10.85, 20.2, 36.72, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                               5.473, 10.55, 21.62, 38.95, 57.45, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    5.525, 10.72, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                     5.582, 10.9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                   5.6437, 11.07, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                   5.6704, 11.25, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    6.1498, 12.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                   5.8638, 11.52, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                   5.9389, 11.67, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    6.0215, 11.8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                   6.1077, 11.93, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            6.1843, 12.05, 23.71, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                             6.2542, 12.17, 25.2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    5.4259, 13.9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                        6.8251, 14.9, 23.3, 33.3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          7.5496, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                           7.864, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          7.8335, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          8.4382, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                           8.967, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                  8.9588, 18.563, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    9.2255, 20.5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                           10.4375, 18.756, 34.2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                           6.1082, 20.428, 29.83, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                             7.4167, 15.032, 31.937, 42.32, 68.8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                          7.2855, 16.69, 25.56, 45.3, 56.0, 88.3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                           8.414, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                         10.7485, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          4.0727, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                  5.2784, 10.147, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                      5.17, 12.1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                        6.3067, 11.5, 20.0, 28.8, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                            5.89, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          6.1941, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          6.2657, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                           6.026, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          5.9738, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          5.9914, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          6.1979, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                          6.2817, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                            6.42, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                             6.5, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                            6.58, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                            6.65, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                             4.9, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                             6.0, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                    2,j.scc.2012.01.051; 2.5, est Corrected Atomic Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                          2,j.scc.2012.01.051; 2.5, eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                  3, j.jallcom.2013.10.043; 4.1 0.7 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                             3,j.scc.2012.01.051; 4.3 0.8 eCAL; 4, j.jallcom.2013.10.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                       5,j.scc.2012.01.051; 4.6 0.8 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                       5,j.scc.2012.01.051; 4.8 0.8 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        My exhaustion run, probably wrong; 6,j.scc.2012.01.051; 5.2 eCAL/MS; 2, j.jmmm.2013.04.023; 6, j.jallcom.2013.10.043; 6, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                          6, j.scc.2012.01.051; 5.4 0.9 eCAL; 5, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                ExhaustWrong; 7, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                 7,j.scc.2012.01.051, j.jmmm.2013.04.023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                2, j.jallcom.2013.10.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            2.7 0.6 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                  2, j.commatsci.2014.05.013; 3 0.6 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                       3, j.jmmm.2013.04.023; 3.3 0.6 eCAL; 2.5, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                     3, j.jmmm.2013.04.023; 3.4 0.6 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                             3 OXF-Project; 3.7 0.6 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                    ExhaustWrong; 4, j.jmmm.2013.04.023; 3.9 0.0 eCAL/MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                    2 MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                           2+SOC!, j.jallcom.2013.10.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                   ExhaustWrong;2, j.jallcom.2013.10.043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            2.4 0.5 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                            2.5, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                         2, j.jmmm.2013.04.023; 2.7 0.5 eCAL; 2, j.commatsci.2014.05.013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                 6, j.jmmm.2013.04.023; 2, eCAL; 3 1 EPL 80 3 2007 37008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                         2.5 OXF-Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                 2.9 0.5 Physical Review B Vol50,No23,1994; 3.1 0.5 eCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                   3, j.jmmm.2013.04.023</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
@@ -1945,6 +343,1458 @@
   </si>
   <si>
     <t>Ra_sv</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>eleneg</t>
+  </si>
+  <si>
+    <t>eleaffin</t>
+  </si>
+  <si>
+    <t>covrad</t>
+  </si>
+  <si>
+    <t>atmrad</t>
+  </si>
+  <si>
+    <t>vdwrad</t>
+  </si>
+  <si>
+    <t>tboil</t>
+  </si>
+  <si>
+    <t>tmelt</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>eleconfig</t>
+  </si>
+  <si>
+    <t>oxistates</t>
+  </si>
+  <si>
+    <t>ionenergy</t>
+  </si>
+  <si>
+    <t>ldauu</t>
+  </si>
+  <si>
+    <t>ldauj</t>
+  </si>
+  <si>
+    <t>ldaucomment</t>
+  </si>
+  <si>
+    <t>magmom</t>
+  </si>
+  <si>
+    <t>magmomcomment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3227, 18.211, 153.893, 217.713, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1391, 47.286, 71.64, 98.91, 138.39, 172.15, 208.47, 264.18, 299.87, 1465.091, 1648.659, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6462, 15.035, 80.143, 109.24, 141.26, 186.5, 224.94, 265.9, 327.95, 367.53, 1761.802, 1962.613, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1517, 16.345, 33.492, 45.141, 166.77, 205.05, 246.52, 303.17, 351.1, 401.43, 476.06, 523.5, 2437.676, 2673.108, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4867, 19.725, 30.18, 51.37, 65.023, 220.43, 263.22, 309.41, 371.73, 424.5, 479.57, 560.41, 611.85, 2816.943, 3069.762, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9676, 23.81, 39.61, 53.46, 67.8, 98.03, 114.193, 348.28, 400.05, 455.62, 529.97, 591.97, 656.69, 749.75, 809.39, 3658.425, 3946.193, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3407, 31.625, 45.72, 60.91, 82.66, 100.0, 117.56, 154.86, 175.814, 503.44, 564.13, 629.09, 714.02, 787.13, 861.77, 968.0, 1034.0, 4610.955, 4933.931, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1132, 11.71, 50.908, 67.1, 84.41, 108.78, 127.7, 147.24, 188.54, 211.27, 591.25, 656.39, 726.03, 816.61, 895.12, 974.0, 1087.0, 1157.0, 5129.045, 5469.738, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5615, 12.8, 24.76, 73.47, 91.66, 11.1, 138.0, 158.7, 180.02, 225.32, 225.32, 685.89, 755.47, 829.79, 926.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6398, 18.168, 35.17, 54.9, 75.5, 108.0, 133.0, 162.0, 193.0, 224.5, 321.2, 352.0, 384.0, 430.0, 464.0, 499.0, 571.0, 607.2, 1547.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9993, 20.51, 30.71, 64.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8994, 15.934, 34.22, 45.71, 93.5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7524, 21.9, 30.82, 42.944, 68.3, 81.7, 155.4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9996, 24.359, 36.95, 52.5, 64.7, 78.5, 110.0, 126.0, 230.39, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1771, 27.28, 40.0, 52.6, 71.0, 84.4, 99.2, 136.0, 150.0, 277.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6949, 11.03, 43.6, 57.0, 71.6, 90.8, 106.0, 122.3, 162.0, 177.0, 324.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0924, 16.15, 27.16, 46.4, 61.2, 68.0, 126.8, 153.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28, 15.26, 29.54, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3605, 16.76, 28.47, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4589, 18.08, 31.06, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3369, 19.43, 32.93, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5762, 21.49, 34.83, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7864, 18.869, 28.03, 28.03, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6084, 16.53, 25.3, 44.2, 56.0, 108.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0096, 18.6, 27.96, 37.41, 58.75, 70.7, 137.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1298, 21.21, 32.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8939, 25.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5387, 10.85, 20.2, 36.72, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.525, 10.72, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1498, 12.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0215, 11.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1843, 12.05, 23.71, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259, 13.9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8251, 14.9, 23.3, 33.3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5496, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8335, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4382, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9588, 18.563, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2255, 20.5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2855, 16.69, 25.56, 45.3, 56.0, 88.3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0727, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2784, 10.147, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17, 12.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3067, 11.5, 20.0, 28.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1941, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2657, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9738, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9914, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1979, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2817, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5984, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5874, 54.416, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3917, 75.638, 122.451, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.298, 25.154, 37.93, 59.368, 340.217, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2603, 24.383, 47.877, 64.492, 392.077, 489.981, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5341, 39.601, 47.488, 77.472, 97.888, 522.057, 667.029, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6181, 35.116, 54.934, 54.934, 77.412, 113.896, 138.116, 739.315, 871.387, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4228, 34.97, 62.707, 87.138, 114.24, 157.161, 185.182, 953.886, 1103.089, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5645, 40.962, 63.45, 97.11, 126.21, 157.93, 207.27, 239.09, 1195.797, 1362.164, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9858, 18.828, 28.447, 119.99, 153.71, 190.47, 241.43, 284.59, 330.21, 398.57, 442.07, 2085.983, 2304.08, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.36, 23.33, 34.83, 47.3, 72.68, 88.049, 280.93, 328.23, 379.1, 447.09, 504.78, 564.65, 651.63, 707.14, 3223.836, 3494.099, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7596, 27.629, 40.74, 59.81, 75.02, 91.007, 124.319, 143.456, 422.44, 478.68, 538.95, 618.24, 686.09, 755.73, 854.75, 918.0, 4120.778, 4426.114, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8281, 13.58, 27.491, 43.266, 99.22, 119.36, 140.8, 168.5, 193.5, 193.2, 215.91, 265.23, 291.497, 787.33, 861.33, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7462, 14.65, 29.31, 46.707, 65.23, 128.12, 150.17, 173.7, 205.8, 230.5, 255.04, 308.25, 336.267, 895.58, 974.02, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7665, 16.5, 30.96, 49.1, 69.3, 90.56, 161.1, 184.7, 209.3, 244.4, 270.8, 298.0, 355.0, 384.3, 1010.64, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.434, 15.64, 33.667, 51.2, 72.4, 95.0, 119.27, 196.46, 221.8, 248.3, 286.0, 314.4, 343.6, 404.0, 435.3, 1136.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9024, 16.18, 30.651, 54.8, 75.0, 99.0, 125.0, 151.06, 235.04, 262.1, 290.4, 330.8, 361.0, 392.2, 457.0, 485.5, 1266.1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.881, 17.06, 33.5, 51.3, 79.5, 102.0, 129.0, 157.0, 186.13, 276.0, 305.0, 336.0, 376.0, 411.0, 444.0, 512.0, 546.8, 1403.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7264, 20.292, 26.83, 55.2, 79.9, 103.0, 139.0, 166.0, 199.0, 232.0, 266.0, 368.8, 401.0, 435.0, 484.0, 520.0, 557.0, 633.0, 671.0, 1698.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3942, 17.964, 39.722, 59.4, 82.6, 108.0, 134.0, 174.0, 203.0, 238.0, 274.0, 310.8, 419.7, 454.0, 490.0, 542.0, 579.0, 619.0, 698.8, 738.0, 1856.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7886, 18.633, 28.351, 50.13, 62.63, 127.6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8138, 21.8, 36.0, 47.3, 59.7, 88.6, 103.0, 192.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2173, 12.24, 20.52, 61.8, 77.0, 93.0, 116.0, 129.0, 146.52, 191.0, 206.0, 374.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6339, 13.13, 22.99, 34.34, 81.5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7589, 14.32, 25.04, 38.3, 50.55, 102.6, 125.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9938, 16.908, 37.48, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3439, 14.632, 30.502, 40.734, 72.28, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4513, 19.131, 33.0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2117, 100.004, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5769, 11.06, 19.175, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.473, 10.55, 21.62, 38.95, 57.45, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.582, 10.9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6437, 11.07, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6704, 11.25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8638, 11.52, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9389, 11.67, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1077, 11.93, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2542, 12.17, 25.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.864, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.967, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4375, 18.756, 34.2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1082, 20.428, 29.83, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4167, 15.032, 31.937, 42.32, 68.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.414, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7485, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.026, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0, </t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>Gd</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Tl</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Bk</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Fm</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Sg</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>Hs</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Argon</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Scandium</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Gallium</t>
+  </si>
+  <si>
+    <t>Germanium</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Bromine</t>
+  </si>
+  <si>
+    <t>Krypton</t>
+  </si>
+  <si>
+    <t>Rubidium</t>
+  </si>
+  <si>
+    <t>Strontium</t>
+  </si>
+  <si>
+    <t>Yttrium</t>
+  </si>
+  <si>
+    <t>Zirconium</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Technetium</t>
+  </si>
+  <si>
+    <t>Ruthenium</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Indium</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Antimony</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Xenon</t>
+  </si>
+  <si>
+    <t>Caesium</t>
+  </si>
+  <si>
+    <t>Barium</t>
+  </si>
+  <si>
+    <t>Lanthanum</t>
+  </si>
+  <si>
+    <t>Cerium</t>
+  </si>
+  <si>
+    <t>Praseodymium</t>
+  </si>
+  <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Promethium</t>
+  </si>
+  <si>
+    <t>Samarium</t>
+  </si>
+  <si>
+    <t>Europium</t>
+  </si>
+  <si>
+    <t>Gadolinium</t>
+  </si>
+  <si>
+    <t>Terbium</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Holmium</t>
+  </si>
+  <si>
+    <t>Erbium</t>
+  </si>
+  <si>
+    <t>Thulium</t>
+  </si>
+  <si>
+    <t>Ytterbium</t>
+  </si>
+  <si>
+    <t>Lutetium</t>
+  </si>
+  <si>
+    <t>Hafnium</t>
+  </si>
+  <si>
+    <t>Tantalum</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>Rhenium</t>
+  </si>
+  <si>
+    <t>Osmium</t>
+  </si>
+  <si>
+    <t>Iridium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Thallium</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Bismuth</t>
+  </si>
+  <si>
+    <t>Polonium</t>
+  </si>
+  <si>
+    <t>Astatine</t>
+  </si>
+  <si>
+    <t>Radon</t>
+  </si>
+  <si>
+    <t>Francium</t>
+  </si>
+  <si>
+    <t>Radium</t>
+  </si>
+  <si>
+    <t>Actinium</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Protactinium</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Neptunium</t>
+  </si>
+  <si>
+    <t>Plutonium</t>
+  </si>
+  <si>
+    <t>Americium</t>
+  </si>
+  <si>
+    <t>Curium</t>
+  </si>
+  <si>
+    <t>Berkelium</t>
+  </si>
+  <si>
+    <t>Californium</t>
+  </si>
+  <si>
+    <t>Einsteinium</t>
+  </si>
+  <si>
+    <t>Fermium</t>
+  </si>
+  <si>
+    <t>Mendelevium</t>
+  </si>
+  <si>
+    <t>Nobelium</t>
+  </si>
+  <si>
+    <t>Lawrencium</t>
+  </si>
+  <si>
+    <t>Dubnium</t>
+  </si>
+  <si>
+    <t>Seaborgium</t>
+  </si>
+  <si>
+    <t>Bohrium</t>
+  </si>
+  <si>
+    <t>Hassium</t>
+  </si>
+  <si>
+    <t>Meitnerium</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>1s2</t>
+  </si>
+  <si>
+    <t>[He]2s</t>
+  </si>
+  <si>
+    <t>[He]2s2</t>
+  </si>
+  <si>
+    <t>[He]2s22p</t>
+  </si>
+  <si>
+    <t>[He]2s22p2</t>
+  </si>
+  <si>
+    <t>[He]2s22p3</t>
+  </si>
+  <si>
+    <t>[He]2s22p4</t>
+  </si>
+  <si>
+    <t>[He]2s22p5</t>
+  </si>
+  <si>
+    <t>[He]2s22p6</t>
+  </si>
+  <si>
+    <t>[Ne]3s</t>
+  </si>
+  <si>
+    <t>[Ne]3s2</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p2</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p3</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p4</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p5</t>
+  </si>
+  <si>
+    <t>[Ne]3s23p6</t>
+  </si>
+  <si>
+    <t>[Ar]4s</t>
+  </si>
+  <si>
+    <t>[Ar]4s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d4s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d24s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d34s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d54s</t>
+  </si>
+  <si>
+    <t>[Ar]3d54s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d64s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d74s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d84s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s2</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p2</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p3</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p4</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p5</t>
+  </si>
+  <si>
+    <t>[Ar]3d104s24p6</t>
+  </si>
+  <si>
+    <t>[Kr]5s</t>
+  </si>
+  <si>
+    <t>[Kr]5s2</t>
+  </si>
+  <si>
+    <t>[Kr]4d5s2</t>
+  </si>
+  <si>
+    <t>[Kr]4d25s2</t>
+  </si>
+  <si>
+    <t>[Kr]4d45s</t>
+  </si>
+  <si>
+    <t>[Kr]4d55s</t>
+  </si>
+  <si>
+    <t>[Kr]4d55s2</t>
+  </si>
+  <si>
+    <t>[Kr]4d75s</t>
+  </si>
+  <si>
+    <t>[Kr]4d85s</t>
+  </si>
+  <si>
+    <t>[Kr]4d10</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s2</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p2</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p3</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p4</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p5</t>
+  </si>
+  <si>
+    <t>[Kr]4d105s25p6</t>
+  </si>
+  <si>
+    <t>[Xe]6s</t>
+  </si>
+  <si>
+    <t>[Xe]6s2</t>
+  </si>
+  <si>
+    <t>[Xe]5d6s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f5d6s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f36s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f46s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f56s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f66s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f76s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f75d6s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f96s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f106s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f116s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f126s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f136s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f146s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d6s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d26s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d36s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d46s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d56s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d66s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d76s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d96s</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p2</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p3</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p4</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p5</t>
+  </si>
+  <si>
+    <t>[Xe]4f145d106s26p6</t>
+  </si>
+  <si>
+    <t>[Rn]7s</t>
+  </si>
+  <si>
+    <t>[Rn]7s2</t>
+  </si>
+  <si>
+    <t>[Rn]6d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]6d27s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f26d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f36d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f46d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f67s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f77s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f76d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f97s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f107s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f117s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f127s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f137s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f147s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d7s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d27s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d37s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d47s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d57s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d67s2</t>
+  </si>
+  <si>
+    <t>[Rn]5f146d77s2</t>
+  </si>
+  <si>
+    <t>1*,-1</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>4*,2,-4*</t>
+  </si>
+  <si>
+    <t>5,4,3,2,-3*</t>
+  </si>
+  <si>
+    <t>-2*,-1</t>
+  </si>
+  <si>
+    <t>-1*</t>
+  </si>
+  <si>
+    <t>4*,-4</t>
+  </si>
+  <si>
+    <t>5*,3,-3</t>
+  </si>
+  <si>
+    <t>6*,4,2,-2</t>
+  </si>
+  <si>
+    <t>7,5,3,1,-1*</t>
+  </si>
+  <si>
+    <t>4*,3</t>
+  </si>
+  <si>
+    <t>5*,4,3,2,0</t>
+  </si>
+  <si>
+    <t>6,3*,2,0</t>
+  </si>
+  <si>
+    <t>7,6,4,3,2*,0,-1</t>
+  </si>
+  <si>
+    <t>6,3*,2,0,-2</t>
+  </si>
+  <si>
+    <t>3,2*,0,-1</t>
+  </si>
+  <si>
+    <t>3,2*,0</t>
+  </si>
+  <si>
+    <t>2*,1</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>5,3*,-3</t>
+  </si>
+  <si>
+    <t>6,4*,-2</t>
+  </si>
+  <si>
+    <t>5*,3</t>
+  </si>
+  <si>
+    <t>6*,5,4,3,2,0</t>
+  </si>
+  <si>
+    <t>7*</t>
+  </si>
+  <si>
+    <t>8,6,4*,3*,2,0,-2</t>
+  </si>
+  <si>
+    <t>5,4,3*,1*,2,0</t>
+  </si>
+  <si>
+    <t>4,2*,0</t>
+  </si>
+  <si>
+    <t>2,1*</t>
+  </si>
+  <si>
+    <t>4*,2*</t>
+  </si>
+  <si>
+    <t>7,5,1,-1*</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
+  </si>
+  <si>
+    <t>4,3*</t>
+  </si>
+  <si>
+    <t>3*,2</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>7,6,4,2,-1</t>
+  </si>
+  <si>
+    <t>8,6,4*,3,2,0,-2</t>
+  </si>
+  <si>
+    <t>6,4*,3,2,1*,0,-1</t>
+  </si>
+  <si>
+    <t>4*,2*,0</t>
+  </si>
+  <si>
+    <t>3*,1</t>
+  </si>
+  <si>
+    <t>3,1*</t>
+  </si>
+  <si>
+    <t>4,2*</t>
+  </si>
+  <si>
+    <t>5,3*</t>
+  </si>
+  <si>
+    <t>6,4*,2</t>
+  </si>
+  <si>
+    <t>5*,4</t>
+  </si>
+  <si>
+    <t>6*,5,4,3</t>
+  </si>
+  <si>
+    <t>6,5*,4,3</t>
+  </si>
+  <si>
+    <t>6,5,4*,3</t>
+  </si>
+  <si>
+    <t>6,5,4,3*</t>
+  </si>
+  <si>
+    <t>3,2*</t>
+  </si>
+  <si>
+    <t>2.70.6eCAL</t>
+  </si>
+  <si>
+    <t>2MS</t>
+  </si>
+  <si>
+    <t>2.40.5eCAL</t>
+  </si>
+  <si>
+    <t>2.5OXF-Project</t>
+  </si>
+  <si>
+    <t>7, j.scc.2012.01.051, j.jmmm.2013.04.023</t>
+  </si>
+  <si>
+    <t>2, j.jallcom.2013.10.043</t>
+  </si>
+  <si>
+    <t>2+SOC!, j.jallcom.2013.10.043</t>
+  </si>
+  <si>
+    <t>2.5, j.commatsci.2014.05.013</t>
+  </si>
+  <si>
+    <t>3, j.jmmm.2013.04.023</t>
+  </si>
+  <si>
+    <t>2, j.scc.2012.01.051; 2.5, estCorrectedAtomicLimit</t>
+  </si>
+  <si>
+    <t>2, j.scc.2012.01.051; 2.5, eCAL</t>
+  </si>
+  <si>
+    <t>3, j.jallcom.2013.10.043; 4.10.7eCAL</t>
+  </si>
+  <si>
+    <t>3, j.scc.2012.01.051; 4.30.8eCAL; 4, j.jallcom.2013.10.043</t>
+  </si>
+  <si>
+    <t>5, j.scc.2012.01.051; 4.60.8eCAL</t>
+  </si>
+  <si>
+    <t>5, j.scc.2012.01.051; 4.80.8eCAL</t>
+  </si>
+  <si>
+    <t>6, j.scc.2012.01.051; 5.40.9eCAL; 5, j.commatsci.2014.05.013</t>
+  </si>
+  <si>
+    <t>ExhaustWrong; 7, j.commatsci.2014.05.013</t>
+  </si>
+  <si>
+    <t>2, j.commatsci.2014.05.013; 30.6eCAL</t>
+  </si>
+  <si>
+    <t>3, j.jmmm.2013.04.023; 3.30.6eCAL; 2.5, j.commatsci.2014.05.013</t>
+  </si>
+  <si>
+    <t>3, j.jmmm.2013.04.023; 3.40.6eCAL</t>
+  </si>
+  <si>
+    <t>3OXF-Project; 3.70.6eCAL</t>
+  </si>
+  <si>
+    <t>ExhaustWrong; 4, j.jmmm.2013.04.023; 3.90.0eCAL/MS</t>
+  </si>
+  <si>
+    <t>ExhaustWrong; 2, j.jallcom.2013.10.043</t>
+  </si>
+  <si>
+    <t>2, j.jmmm.2013.04.023; 2.70.5eCAL; 2, j.commatsci.2014.05.013</t>
+  </si>
+  <si>
+    <t>6, j.jmmm.2013.04.023; 2, eCAL; 31EPL803200737008</t>
+  </si>
+  <si>
+    <t>2.90.5PhysicalReviewBVol50, No23, 1994; 3.10.5eCAL</t>
+  </si>
+  <si>
+    <t>6, j.scc.2012.01.051; 5.2eCAL/MS; 2, j.jmmm.2013.04.023; 6, j.jallcom.2013.10.043; 6, j.commatsci.2014.05.013</t>
   </si>
 </sst>
 </file>
@@ -2265,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2291,7 +2141,7 @@
     <col min="19" max="19" width="138.1328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="132" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="90.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16.6640625" customWidth="1"/>
     <col min="25" max="25" width="6.19921875" bestFit="1" customWidth="1"/>
@@ -2300,82 +2150,82 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
@@ -2383,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2395,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -2428,13 +2278,13 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>458</v>
+        <v>183</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
@@ -2442,14 +2292,12 @@
       <c r="U2" s="1">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V2" s="1"/>
       <c r="W2" s="1">
         <v>0.6</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
         <v>0</v>
@@ -2463,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1">
         <v>18</v>
@@ -2475,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -2508,13 +2356,13 @@
         <v>0.17849999999999999</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>459</v>
+        <v>184</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -2522,14 +2370,12 @@
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V3" s="1"/>
       <c r="W3" s="1">
         <v>0.6</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
         <v>1</v>
@@ -2539,14 +2385,14 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2555,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -2588,13 +2434,13 @@
         <v>0.53</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>299</v>
+        <v>402</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="T4" s="1">
         <v>0</v>
@@ -2602,17 +2448,15 @@
       <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V4" s="1"/>
       <c r="W4" s="1">
         <v>0.6</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>591</v>
+        <v>57</v>
       </c>
       <c r="Z4">
         <v>499</v>
@@ -2623,10 +2467,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2635,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -2668,13 +2512,13 @@
         <v>1.85</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="T5" s="1">
         <v>0</v>
@@ -2682,14 +2526,12 @@
       <c r="U5" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V5" s="1"/>
       <c r="W5" s="1">
         <v>0.6</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
         <v>2</v>
@@ -2703,10 +2545,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
@@ -2715,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -2748,13 +2590,13 @@
         <v>2.46</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>462</v>
+        <v>186</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -2762,14 +2604,12 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V6" s="1"/>
       <c r="W6" s="1">
         <v>0.6</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
         <v>3</v>
@@ -2783,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1">
         <v>14</v>
@@ -2795,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -2828,13 +2668,13 @@
         <v>3.51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>411</v>
+        <v>514</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>463</v>
+        <v>187</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -2842,14 +2682,12 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V7" s="1"/>
       <c r="W7" s="1">
         <v>0.6</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
         <v>4</v>
@@ -2863,10 +2701,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1">
         <v>15</v>
@@ -2875,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2908,13 +2746,13 @@
         <v>1.17</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>412</v>
+        <v>515</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>464</v>
+        <v>188</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -2922,14 +2760,12 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1">
         <v>0.6</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y8" t="s">
         <v>5</v>
@@ -2943,10 +2779,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="D9" s="1">
         <v>16</v>
@@ -2955,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -2988,13 +2824,13 @@
         <v>1.33</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>413</v>
+        <v>516</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -3002,14 +2838,12 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V9" s="1"/>
       <c r="W9" s="1">
         <v>0.6</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y9" t="s">
         <v>6</v>
@@ -3023,10 +2857,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1">
         <v>17</v>
@@ -3035,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -3068,13 +2902,13 @@
         <v>1.58</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>466</v>
+        <v>190</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -3082,14 +2916,12 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V10" s="1"/>
       <c r="W10" s="1">
         <v>0.6</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y10" t="s">
         <v>7</v>
@@ -3103,10 +2935,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1">
         <v>18</v>
@@ -3115,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -3148,13 +2980,13 @@
         <v>0.89990000000000003</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>467</v>
+        <v>191</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -3162,14 +2994,12 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="1">
         <v>0.6</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y11" t="s">
         <v>8</v>
@@ -3183,10 +3013,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3195,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3228,13 +3058,13 @@
         <v>0.97</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>468</v>
+        <v>130</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -3242,17 +3072,15 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V12" s="1"/>
       <c r="W12" s="1">
         <v>0.6</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y12" t="s">
-        <v>592</v>
+        <v>58</v>
       </c>
       <c r="Z12">
         <v>260</v>
@@ -3263,10 +3091,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -3275,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
@@ -3308,13 +3136,13 @@
         <v>1.74</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>469</v>
+        <v>131</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -3322,14 +3150,12 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V13" s="1"/>
       <c r="W13" s="1">
         <v>0.6</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y13" t="s">
         <v>9</v>
@@ -3343,10 +3169,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
+        <v>304</v>
       </c>
       <c r="D14" s="1">
         <v>13</v>
@@ -3355,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>7</v>
@@ -3388,13 +3214,13 @@
         <v>2.7</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>470</v>
+        <v>192</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -3402,14 +3228,12 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V14" s="1"/>
       <c r="W14" s="1">
         <v>0.6</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y14" t="s">
         <v>10</v>
@@ -3423,10 +3247,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="D15" s="1">
         <v>14</v>
@@ -3435,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
@@ -3468,13 +3292,13 @@
         <v>2.33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>415</v>
+        <v>518</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>471</v>
+        <v>132</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -3482,14 +3306,12 @@
       <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V15" s="1"/>
       <c r="W15" s="1">
         <v>0.6</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y15" t="s">
         <v>11</v>
@@ -3503,10 +3325,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="D16" s="1">
         <v>15</v>
@@ -3515,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3548,13 +3370,13 @@
         <v>1.82</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>416</v>
+        <v>519</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>472</v>
+        <v>133</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -3562,14 +3384,12 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="1">
         <v>0.6</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
@@ -3583,10 +3403,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1">
         <v>16</v>
@@ -3595,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -3628,13 +3448,13 @@
         <v>2.06</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>417</v>
+        <v>520</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>473</v>
+        <v>193</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -3642,14 +3462,12 @@
       <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V17" s="1"/>
       <c r="W17" s="1">
         <v>0.6</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y17" t="s">
         <v>13</v>
@@ -3663,10 +3481,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="D18" s="1">
         <v>17</v>
@@ -3675,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>6</v>
@@ -3708,13 +3526,13 @@
         <v>2.95</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>418</v>
+        <v>521</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>474</v>
+        <v>134</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -3722,14 +3540,12 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V18" s="1"/>
       <c r="W18" s="1">
         <v>0.6</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y18" t="s">
         <v>14</v>
@@ -3743,10 +3559,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1">
         <v>18</v>
@@ -3755,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -3788,13 +3604,13 @@
         <v>1.66</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>475</v>
+        <v>194</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -3802,14 +3618,12 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V19" s="1"/>
       <c r="W19" s="1">
         <v>0.6</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y19" t="s">
         <v>15</v>
@@ -3823,10 +3637,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -3835,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -3868,13 +3682,13 @@
         <v>0.86</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>476</v>
+        <v>135</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -3882,17 +3696,15 @@
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V20" s="1"/>
       <c r="W20" s="1">
         <v>0.6</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y20" t="s">
-        <v>593</v>
+        <v>59</v>
       </c>
       <c r="Z20">
         <v>259</v>
@@ -3903,10 +3715,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -3915,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
@@ -3948,13 +3760,13 @@
         <v>1.54</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>477</v>
+        <v>136</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -3962,17 +3774,15 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1">
         <v>0.6</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y21" t="s">
-        <v>594</v>
+        <v>60</v>
       </c>
       <c r="Z21">
         <v>267</v>
@@ -3983,10 +3793,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3995,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>8</v>
@@ -4028,13 +3838,13 @@
         <v>2.99</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>478</v>
+        <v>137</v>
       </c>
       <c r="T22" s="1">
         <v>2</v>
@@ -4043,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="W22" s="1">
         <v>3</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y22" t="s">
-        <v>595</v>
+        <v>61</v>
       </c>
       <c r="Z22">
         <v>223</v>
@@ -4063,10 +3873,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -4075,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
@@ -4108,13 +3918,13 @@
         <v>4.51</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>318</v>
+        <v>421</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>479</v>
+        <v>195</v>
       </c>
       <c r="T23" s="1">
         <v>2</v>
@@ -4123,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="W23" s="1">
         <v>3</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y23" t="s">
-        <v>596</v>
+        <v>62</v>
       </c>
       <c r="Z23">
         <v>275</v>
@@ -4143,10 +3953,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -4155,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1">
         <v>8</v>
@@ -4188,13 +3998,13 @@
         <v>6.09</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>420</v>
+        <v>523</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>480</v>
+        <v>196</v>
       </c>
       <c r="T24" s="1">
         <v>3</v>
@@ -4203,16 +4013,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="W24" s="1">
         <v>3</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y24" t="s">
-        <v>597</v>
+        <v>63</v>
       </c>
       <c r="Z24">
         <v>264</v>
@@ -4223,10 +4033,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -4235,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1">
         <v>8</v>
@@ -4268,13 +4078,13 @@
         <v>7.14</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>421</v>
+        <v>524</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>481</v>
+        <v>197</v>
       </c>
       <c r="T25" s="1">
         <v>3</v>
@@ -4283,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="W25" s="1">
         <v>3</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y25" t="s">
-        <v>598</v>
+        <v>64</v>
       </c>
       <c r="Z25">
         <v>266</v>
@@ -4303,10 +4113,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="D26" s="1">
         <v>7</v>
@@ -4315,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1">
         <v>8</v>
@@ -4348,13 +4158,13 @@
         <v>7.44</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>422</v>
+        <v>525</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>482</v>
+        <v>198</v>
       </c>
       <c r="T26" s="1">
         <v>5</v>
@@ -4363,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="W26" s="1">
         <v>3</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y26" t="s">
-        <v>599</v>
+        <v>65</v>
       </c>
       <c r="Z26">
         <v>270</v>
@@ -4383,10 +4193,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="D27" s="1">
         <v>8</v>
@@ -4395,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1">
         <v>8</v>
@@ -4428,13 +4238,13 @@
         <v>7.8739999999999997</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>423</v>
+        <v>526</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>483</v>
+        <v>199</v>
       </c>
       <c r="T27" s="1">
         <v>5</v>
@@ -4443,13 +4253,13 @@
         <v>0</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="W27" s="1">
         <v>3</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y27" t="s">
         <v>16</v>
@@ -4463,10 +4273,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1">
         <v>9</v>
@@ -4475,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1">
         <v>8</v>
@@ -4508,13 +4318,13 @@
         <v>8.89</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>424</v>
+        <v>527</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>484</v>
+        <v>200</v>
       </c>
       <c r="T28" s="1">
         <v>6</v>
@@ -4523,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="W28" s="1">
         <v>0.6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y28" t="s">
         <v>17</v>
@@ -4543,10 +4353,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="D29" s="1">
         <v>10</v>
@@ -4555,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1">
         <v>8</v>
@@ -4588,13 +4398,13 @@
         <v>8.91</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>425</v>
+        <v>528</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="T29" s="1">
         <v>5</v>
@@ -4603,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="W29" s="1">
         <v>3</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y29" t="s">
         <v>18</v>
@@ -4623,10 +4433,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="D30" s="1">
         <v>11</v>
@@ -4635,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1">
         <v>8</v>
@@ -4668,13 +4478,13 @@
         <v>8.92</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>486</v>
+        <v>201</v>
       </c>
       <c r="T30" s="1">
         <v>7</v>
@@ -4683,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="W30" s="1">
         <v>3</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y30" t="s">
         <v>19</v>
@@ -4703,10 +4513,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
@@ -4715,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
@@ -4748,13 +4558,13 @@
         <v>7.14</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>487</v>
+        <v>202</v>
       </c>
       <c r="T31" s="1">
         <v>7</v>
@@ -4763,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="W31" s="1">
         <v>3</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y31" t="s">
         <v>20</v>
@@ -4783,10 +4593,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="D32" s="1">
         <v>13</v>
@@ -4795,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1">
         <v>7</v>
@@ -4828,13 +4638,13 @@
         <v>5.91</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>488</v>
+        <v>139</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -4842,17 +4652,15 @@
       <c r="U32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V32" s="1"/>
       <c r="W32" s="1">
         <v>0.6</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y32" t="s">
-        <v>600</v>
+        <v>66</v>
       </c>
       <c r="Z32">
         <v>283</v>
@@ -4863,10 +4671,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1">
         <v>14</v>
@@ -4875,7 +4683,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
@@ -4908,13 +4716,13 @@
         <v>5.32</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>328</v>
+        <v>431</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>489</v>
+        <v>140</v>
       </c>
       <c r="T33" s="1">
         <v>0</v>
@@ -4922,17 +4730,15 @@
       <c r="U33" s="1">
         <v>0</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V33" s="1"/>
       <c r="W33" s="1">
         <v>0.6</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y33" t="s">
-        <v>601</v>
+        <v>67</v>
       </c>
       <c r="Z33">
         <v>310</v>
@@ -4943,10 +4749,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="D34" s="1">
         <v>15</v>
@@ -4955,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -4988,13 +4794,13 @@
         <v>5.72</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>490</v>
+        <v>203</v>
       </c>
       <c r="T34" s="1">
         <v>0</v>
@@ -5002,14 +4808,12 @@
       <c r="U34" s="1">
         <v>0</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V34" s="1"/>
       <c r="W34" s="1">
         <v>0.6</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y34" t="s">
         <v>21</v>
@@ -5023,10 +4827,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
       <c r="D35" s="1">
         <v>16</v>
@@ -5035,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -5068,13 +4872,13 @@
         <v>4.82</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>429</v>
+        <v>532</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>491</v>
+        <v>141</v>
       </c>
       <c r="T35" s="1">
         <v>0</v>
@@ -5082,14 +4886,12 @@
       <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V35" s="1"/>
       <c r="W35" s="1">
         <v>0.6</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y35" t="s">
         <v>22</v>
@@ -5103,10 +4905,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="D36" s="1">
         <v>17</v>
@@ -5115,7 +4917,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1">
         <v>6</v>
@@ -5148,13 +4950,13 @@
         <v>3.14</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>418</v>
+        <v>521</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>492</v>
+        <v>204</v>
       </c>
       <c r="T36" s="1">
         <v>0</v>
@@ -5162,14 +4964,12 @@
       <c r="U36" s="1">
         <v>0</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V36" s="1"/>
       <c r="W36" s="1">
         <v>0.6</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y36" t="s">
         <v>23</v>
@@ -5183,10 +4983,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="D37" s="1">
         <v>18</v>
@@ -5195,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -5228,13 +5028,13 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>493</v>
+        <v>142</v>
       </c>
       <c r="T37" s="1">
         <v>0</v>
@@ -5242,14 +5042,12 @@
       <c r="U37" s="1">
         <v>0</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V37" s="1"/>
       <c r="W37" s="1">
         <v>0.6</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y37" t="s">
         <v>24</v>
@@ -5263,10 +5061,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -5275,7 +5073,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -5308,13 +5106,13 @@
         <v>1.53</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>494</v>
+        <v>143</v>
       </c>
       <c r="T38" s="1">
         <v>0</v>
@@ -5322,17 +5120,15 @@
       <c r="U38" s="1">
         <v>0</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V38" s="1"/>
       <c r="W38" s="1">
         <v>0.6</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y38" t="s">
-        <v>602</v>
+        <v>68</v>
       </c>
       <c r="Z38">
         <v>220</v>
@@ -5343,10 +5139,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -5355,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1">
         <v>4</v>
@@ -5388,13 +5184,13 @@
         <v>2.63</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>495</v>
+        <v>144</v>
       </c>
       <c r="T39" s="1">
         <v>0</v>
@@ -5402,17 +5198,15 @@
       <c r="U39" s="1">
         <v>0</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V39" s="1"/>
       <c r="W39" s="1">
         <v>0.6</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y39" t="s">
-        <v>603</v>
+        <v>69</v>
       </c>
       <c r="Z39">
         <v>229</v>
@@ -5423,10 +5217,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -5435,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G40" s="1">
         <v>8</v>
@@ -5468,13 +5262,13 @@
         <v>4.47</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>496</v>
+        <v>205</v>
       </c>
       <c r="T40" s="1">
         <v>2</v>
@@ -5483,16 +5277,16 @@
         <v>0</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="W40" s="1">
         <v>3</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y40" t="s">
-        <v>604</v>
+        <v>70</v>
       </c>
       <c r="Z40">
         <v>203</v>
@@ -5503,10 +5297,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -5515,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1">
         <v>8</v>
@@ -5548,13 +5342,13 @@
         <v>6.51</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>497</v>
+        <v>206</v>
       </c>
       <c r="T41" s="1">
         <v>2</v>
@@ -5563,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="W41" s="1">
         <v>3</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y41" t="s">
-        <v>605</v>
+        <v>71</v>
       </c>
       <c r="Z41">
         <v>230</v>
@@ -5583,10 +5377,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
@@ -5595,7 +5389,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1">
         <v>8</v>
@@ -5628,13 +5422,13 @@
         <v>8.58</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>430</v>
+        <v>533</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="T42" s="1">
         <v>2.7</v>
@@ -5643,16 +5437,16 @@
         <v>0.6</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="W42" s="1">
         <v>3</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y42" t="s">
-        <v>606</v>
+        <v>72</v>
       </c>
       <c r="Z42">
         <v>293</v>
@@ -5663,10 +5457,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
@@ -5675,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G43" s="1">
         <v>8</v>
@@ -5708,13 +5502,13 @@
         <v>10.28</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="T43" s="1">
         <v>2</v>
@@ -5723,16 +5517,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="W43" s="1">
         <v>3</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y43" t="s">
-        <v>607</v>
+        <v>73</v>
       </c>
       <c r="Z43">
         <v>243</v>
@@ -5743,10 +5537,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="D44" s="1">
         <v>7</v>
@@ -5755,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1">
         <v>8</v>
@@ -5788,13 +5582,13 @@
         <v>11.49</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>432</v>
+        <v>535</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>500</v>
+        <v>146</v>
       </c>
       <c r="T44" s="1">
         <v>3</v>
@@ -5803,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="W44" s="1">
         <v>3</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y44" t="s">
-        <v>608</v>
+        <v>74</v>
       </c>
       <c r="Z44">
         <v>264</v>
@@ -5823,10 +5617,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>227</v>
+        <v>335</v>
       </c>
       <c r="D45" s="1">
         <v>8</v>
@@ -5835,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1">
         <v>8</v>
@@ -5868,13 +5662,13 @@
         <v>12.45</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>501</v>
+        <v>147</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
@@ -5883,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="W45" s="1">
         <v>3</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y45" t="s">
-        <v>609</v>
+        <v>75</v>
       </c>
       <c r="Z45">
         <v>240</v>
@@ -5903,10 +5697,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>228</v>
+        <v>336</v>
       </c>
       <c r="D46" s="1">
         <v>9</v>
@@ -5915,7 +5709,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G46" s="1">
         <v>8</v>
@@ -5948,13 +5742,13 @@
         <v>12.41</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>434</v>
+        <v>537</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>502</v>
+        <v>148</v>
       </c>
       <c r="T46" s="1">
         <v>3.7</v>
@@ -5963,16 +5757,16 @@
         <v>0.6</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="W46" s="1">
         <v>0.6</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y46" t="s">
-        <v>610</v>
+        <v>76</v>
       </c>
       <c r="Z46">
         <v>247</v>
@@ -5983,10 +5777,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
@@ -5995,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G47" s="1">
         <v>8</v>
@@ -6028,13 +5822,13 @@
         <v>12.02</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>503</v>
+        <v>149</v>
       </c>
       <c r="T47" s="1">
         <v>4</v>
@@ -6043,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="W47" s="1">
         <v>3</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y47" t="s">
         <v>25</v>
@@ -6063,10 +5857,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="D48" s="1">
         <v>11</v>
@@ -6075,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G48" s="1">
         <v>8</v>
@@ -6108,13 +5902,13 @@
         <v>10.49</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>504</v>
+        <v>150</v>
       </c>
       <c r="T48" s="1">
         <v>2</v>
@@ -6123,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="W48" s="1">
         <v>0.6</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y48" t="s">
         <v>26</v>
@@ -6143,10 +5937,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
@@ -6155,7 +5949,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G49" s="1">
         <v>8</v>
@@ -6188,13 +5982,13 @@
         <v>8.64</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>505</v>
+        <v>208</v>
       </c>
       <c r="T49" s="1">
         <v>2</v>
@@ -6203,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="W49" s="1">
         <v>0.6</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y49" t="s">
         <v>27</v>
@@ -6223,10 +6017,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="D50" s="1">
         <v>13</v>
@@ -6235,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G50" s="1">
         <v>7</v>
@@ -6268,13 +6062,13 @@
         <v>7.31</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>506</v>
+        <v>151</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -6282,17 +6076,15 @@
       <c r="U50" s="1">
         <v>0</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V50" s="1"/>
       <c r="W50" s="1">
         <v>0.6</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y50" t="s">
-        <v>611</v>
+        <v>77</v>
       </c>
       <c r="Z50">
         <v>239</v>
@@ -6303,10 +6095,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D51" s="1">
         <v>14</v>
@@ -6315,7 +6107,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G51" s="1">
         <v>7</v>
@@ -6348,13 +6140,13 @@
         <v>7.29</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>507</v>
+        <v>209</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
@@ -6362,17 +6154,15 @@
       <c r="U51" s="1">
         <v>0</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V51" s="1"/>
       <c r="W51" s="1">
         <v>0.6</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y51" t="s">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="Z51">
         <v>241</v>
@@ -6383,10 +6173,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="D52" s="1">
         <v>15</v>
@@ -6395,7 +6185,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1">
         <v>5</v>
@@ -6428,13 +6218,13 @@
         <v>6.69</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>347</v>
+        <v>450</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>508</v>
+        <v>152</v>
       </c>
       <c r="T52" s="1">
         <v>0</v>
@@ -6442,14 +6232,12 @@
       <c r="U52" s="1">
         <v>0</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V52" s="1"/>
       <c r="W52" s="1">
         <v>0.6</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y52" t="s">
         <v>28</v>
@@ -6463,10 +6251,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1">
         <v>16</v>
@@ -6475,7 +6263,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G53" s="1">
         <v>5</v>
@@ -6508,13 +6296,13 @@
         <v>6.25</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>429</v>
+        <v>532</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>509</v>
+        <v>153</v>
       </c>
       <c r="T53" s="1">
         <v>0</v>
@@ -6522,14 +6310,12 @@
       <c r="U53" s="1">
         <v>0</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V53" s="1"/>
       <c r="W53" s="1">
         <v>0.6</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y53" t="s">
         <v>29</v>
@@ -6543,10 +6329,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>236</v>
+        <v>344</v>
       </c>
       <c r="D54" s="1">
         <v>17</v>
@@ -6555,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G54" s="1">
         <v>6</v>
@@ -6588,13 +6374,13 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="T54" s="1">
         <v>0</v>
@@ -6602,14 +6388,12 @@
       <c r="U54" s="1">
         <v>0</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V54" s="1"/>
       <c r="W54" s="1">
         <v>0.6</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y54" t="s">
         <v>30</v>
@@ -6623,10 +6407,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="D55" s="1">
         <v>18</v>
@@ -6635,7 +6419,7 @@
         <v>5</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -6668,13 +6452,13 @@
         <v>4.49</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>439</v>
+        <v>542</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>511</v>
+        <v>154</v>
       </c>
       <c r="T55" s="1">
         <v>0</v>
@@ -6682,14 +6466,12 @@
       <c r="U55" s="1">
         <v>0</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V55" s="1"/>
       <c r="W55" s="1">
         <v>0.6</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y55" t="s">
         <v>31</v>
@@ -6703,10 +6485,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -6715,7 +6497,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G56" s="1">
         <v>3</v>
@@ -6748,13 +6530,13 @@
         <v>1.9</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>512</v>
+        <v>155</v>
       </c>
       <c r="T56" s="1">
         <v>0</v>
@@ -6762,17 +6544,15 @@
       <c r="U56" s="1">
         <v>0</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V56" s="1"/>
       <c r="W56" s="1">
         <v>0.6</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y56" t="s">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="Z56">
         <v>220</v>
@@ -6783,10 +6563,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -6795,7 +6575,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G57" s="1">
         <v>4</v>
@@ -6828,13 +6608,13 @@
         <v>3.65</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>513</v>
+        <v>211</v>
       </c>
       <c r="T57" s="1">
         <v>0</v>
@@ -6842,17 +6622,15 @@
       <c r="U57" s="1">
         <v>0</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V57" s="1"/>
       <c r="W57" s="1">
         <v>0.6</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y57" t="s">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="Z57">
         <v>187</v>
@@ -6863,10 +6641,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -6875,7 +6653,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G58" s="1">
         <v>9</v>
@@ -6908,13 +6686,13 @@
         <v>6.16</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>353</v>
+        <v>456</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>514</v>
+        <v>212</v>
       </c>
       <c r="T58" s="1">
         <v>2</v>
@@ -6923,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="W58" s="1">
         <v>3</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y58" t="s">
         <v>32</v>
@@ -6943,10 +6721,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -6955,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G59" s="1">
         <v>9</v>
@@ -6988,13 +6766,13 @@
         <v>6.77</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>515</v>
+        <v>156</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
@@ -7002,14 +6780,12 @@
       <c r="U59" s="1">
         <v>0</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V59" s="1"/>
       <c r="W59" s="1">
         <v>0.6</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y59" t="s">
         <v>33</v>
@@ -7023,10 +6799,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -7035,7 +6811,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G60" s="1">
         <v>9</v>
@@ -7068,13 +6844,13 @@
         <v>6.48</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
@@ -7082,17 +6858,15 @@
       <c r="U60" s="1">
         <v>0</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V60" s="1"/>
       <c r="W60" s="1">
         <v>0.6</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y60" t="s">
-        <v>615</v>
+        <v>81</v>
       </c>
       <c r="Z60">
         <v>182</v>
@@ -7103,10 +6877,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
@@ -7115,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G61" s="1">
         <v>9</v>
@@ -7148,13 +6922,13 @@
         <v>7</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>517</v>
+        <v>157</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
@@ -7162,17 +6936,15 @@
       <c r="U61" s="1">
         <v>0</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V61" s="1"/>
       <c r="W61" s="1">
         <v>0.6</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y61" t="s">
-        <v>616</v>
+        <v>82</v>
       </c>
       <c r="Z61">
         <v>183</v>
@@ -7183,10 +6955,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -7195,7 +6967,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G62" s="1">
         <v>9</v>
@@ -7228,13 +7000,13 @@
         <v>7.22</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>518</v>
+        <v>214</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
@@ -7242,17 +7014,15 @@
       <c r="U62" s="1">
         <v>0</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V62" s="1"/>
       <c r="W62" s="1">
         <v>0.6</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y62" t="s">
-        <v>617</v>
+        <v>83</v>
       </c>
       <c r="Z62">
         <v>177</v>
@@ -7263,10 +7033,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -7275,7 +7045,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G63" s="1">
         <v>9</v>
@@ -7308,13 +7078,13 @@
         <v>7.54</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>519</v>
+        <v>215</v>
       </c>
       <c r="T63" s="1">
         <v>0</v>
@@ -7322,17 +7092,15 @@
       <c r="U63" s="1">
         <v>0</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V63" s="1"/>
       <c r="W63" s="1">
         <v>0.6</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y63" t="s">
-        <v>618</v>
+        <v>84</v>
       </c>
       <c r="Z63">
         <v>177</v>
@@ -7343,10 +7111,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -7355,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G64" s="1">
         <v>9</v>
@@ -7388,13 +7156,13 @@
         <v>5.25</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>520</v>
+        <v>216</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
@@ -7402,17 +7170,15 @@
       <c r="U64" s="1">
         <v>0</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V64" s="1"/>
       <c r="W64" s="1">
         <v>0.6</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y64" t="s">
-        <v>619</v>
+        <v>85</v>
       </c>
       <c r="Z64">
         <v>99</v>
@@ -7423,10 +7189,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -7435,7 +7201,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G65" s="1">
         <v>9</v>
@@ -7468,13 +7234,13 @@
         <v>7.89</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>521</v>
+        <v>158</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -7482,17 +7248,15 @@
       <c r="U65" s="1">
         <v>0</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V65" s="1"/>
       <c r="W65" s="1">
         <v>0.6</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y65" t="s">
-        <v>620</v>
+        <v>86</v>
       </c>
       <c r="Z65">
         <v>154</v>
@@ -7503,10 +7267,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -7515,7 +7279,7 @@
         <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G66" s="1">
         <v>9</v>
@@ -7548,13 +7312,13 @@
         <v>8.25</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>522</v>
+        <v>217</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
@@ -7562,17 +7326,15 @@
       <c r="U66" s="1">
         <v>0</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V66" s="1"/>
       <c r="W66" s="1">
         <v>0.6</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y66" t="s">
-        <v>621</v>
+        <v>87</v>
       </c>
       <c r="Z66">
         <v>156</v>
@@ -7583,10 +7345,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -7595,7 +7357,7 @@
         <v>6</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G67" s="1">
         <v>9</v>
@@ -7628,13 +7390,13 @@
         <v>8.56</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>523</v>
+        <v>218</v>
       </c>
       <c r="T67" s="1">
         <v>0</v>
@@ -7642,17 +7404,15 @@
       <c r="U67" s="1">
         <v>0</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V67" s="1"/>
       <c r="W67" s="1">
         <v>0.6</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y67" t="s">
-        <v>622</v>
+        <v>88</v>
       </c>
       <c r="Z67">
         <v>156</v>
@@ -7663,10 +7423,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -7675,7 +7435,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G68" s="1">
         <v>9</v>
@@ -7708,13 +7468,13 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>524</v>
+        <v>159</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
@@ -7722,17 +7482,15 @@
       <c r="U68" s="1">
         <v>0</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V68" s="1"/>
       <c r="W68" s="1">
         <v>0.6</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y68" t="s">
-        <v>623</v>
+        <v>89</v>
       </c>
       <c r="Z68">
         <v>154</v>
@@ -7743,10 +7501,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -7755,7 +7513,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G69" s="1">
         <v>9</v>
@@ -7788,13 +7546,13 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>525</v>
+        <v>219</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -7802,17 +7560,15 @@
       <c r="U69" s="1">
         <v>0</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V69" s="1"/>
       <c r="W69" s="1">
         <v>0.6</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y69" t="s">
-        <v>624</v>
+        <v>90</v>
       </c>
       <c r="Z69">
         <v>155</v>
@@ -7823,10 +7579,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -7835,7 +7591,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G70" s="1">
         <v>9</v>
@@ -7868,13 +7624,13 @@
         <v>9.32</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>526</v>
+        <v>160</v>
       </c>
       <c r="T70" s="1">
         <v>0</v>
@@ -7882,17 +7638,15 @@
       <c r="U70" s="1">
         <v>0</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V70" s="1"/>
       <c r="W70" s="1">
         <v>0.6</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y70" t="s">
-        <v>625</v>
+        <v>91</v>
       </c>
       <c r="Z70">
         <v>149</v>
@@ -7903,10 +7657,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -7915,7 +7669,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G71" s="1">
         <v>9</v>
@@ -7948,13 +7702,13 @@
         <v>9.32</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>366</v>
+        <v>469</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>527</v>
+        <v>220</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
@@ -7962,17 +7716,15 @@
       <c r="U71" s="1">
         <v>0</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V71" s="1"/>
       <c r="W71" s="1">
         <v>0.6</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y71" t="s">
-        <v>626</v>
+        <v>92</v>
       </c>
       <c r="Z71">
         <v>113</v>
@@ -7983,10 +7735,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>254</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -7995,7 +7747,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G72" s="1">
         <v>9</v>
@@ -8028,13 +7780,13 @@
         <v>9.84</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>367</v>
+        <v>470</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>528</v>
+        <v>161</v>
       </c>
       <c r="T72" s="1">
         <v>0</v>
@@ -8042,17 +7794,15 @@
       <c r="U72" s="1">
         <v>0</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V72" s="1"/>
       <c r="W72" s="1">
         <v>0.6</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y72" t="s">
-        <v>627</v>
+        <v>93</v>
       </c>
       <c r="Z72">
         <v>155</v>
@@ -8063,10 +7813,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="D73" s="1">
         <v>4</v>
@@ -8075,7 +7825,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G73" s="1">
         <v>8</v>
@@ -8108,13 +7858,13 @@
         <v>13.31</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>368</v>
+        <v>471</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>529</v>
+        <v>162</v>
       </c>
       <c r="T73" s="1">
         <v>2</v>
@@ -8123,16 +7873,16 @@
         <v>0</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="W73" s="1">
         <v>3</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y73" t="s">
-        <v>628</v>
+        <v>94</v>
       </c>
       <c r="Z73">
         <v>220</v>
@@ -8143,10 +7893,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -8155,7 +7905,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G74" s="1">
         <v>8</v>
@@ -8188,13 +7938,13 @@
         <v>16.68</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>369</v>
+        <v>472</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>442</v>
+        <v>545</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>530</v>
+        <v>163</v>
       </c>
       <c r="T74" s="1">
         <v>2.4</v>
@@ -8203,16 +7953,16 @@
         <v>0.5</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="W74" s="1">
         <v>0.6</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y74" t="s">
-        <v>629</v>
+        <v>95</v>
       </c>
       <c r="Z74">
         <v>224</v>
@@ -8223,10 +7973,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>257</v>
+        <v>365</v>
       </c>
       <c r="D75" s="1">
         <v>6</v>
@@ -8235,7 +7985,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G75" s="1">
         <v>8</v>
@@ -8268,13 +8018,13 @@
         <v>19.260000000000002</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>531</v>
+        <v>221</v>
       </c>
       <c r="T75" s="1">
         <v>2.5</v>
@@ -8283,16 +8033,16 @@
         <v>0</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="W75" s="1">
         <v>0.6</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y75" t="s">
-        <v>630</v>
+        <v>96</v>
       </c>
       <c r="Z75">
         <v>223</v>
@@ -8303,10 +8053,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>258</v>
+        <v>366</v>
       </c>
       <c r="D76" s="1">
         <v>7</v>
@@ -8315,7 +8065,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G76" s="1">
         <v>8</v>
@@ -8348,13 +8098,13 @@
         <v>21.03</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>443</v>
+        <v>546</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>532</v>
+        <v>164</v>
       </c>
       <c r="T76" s="1">
         <v>2</v>
@@ -8363,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="W76" s="1">
         <v>0.6</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y76" t="s">
         <v>34</v>
@@ -8383,10 +8133,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="D77" s="1">
         <v>8</v>
@@ -8395,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G77" s="1">
         <v>8</v>
@@ -8428,13 +8178,13 @@
         <v>22.61</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>533</v>
+        <v>165</v>
       </c>
       <c r="T77" s="1">
         <v>2</v>
@@ -8443,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="W77" s="1">
         <v>3</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y77" t="s">
         <v>35</v>
@@ -8463,10 +8213,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="D78" s="1">
         <v>9</v>
@@ -8475,7 +8225,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G78" s="1">
         <v>8</v>
@@ -8508,13 +8258,13 @@
         <v>22.65</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>373</v>
+        <v>476</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>445</v>
+        <v>548</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>534</v>
+        <v>222</v>
       </c>
       <c r="T78" s="1">
         <v>3</v>
@@ -8523,13 +8273,13 @@
         <v>0.5</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="W78" s="1">
         <v>3</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y78" t="s">
         <v>36</v>
@@ -8543,10 +8293,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="D79" s="1">
         <v>10</v>
@@ -8555,7 +8305,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G79" s="1">
         <v>8</v>
@@ -8588,13 +8338,13 @@
         <v>21.45</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>374</v>
+        <v>477</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>446</v>
+        <v>549</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>535</v>
+        <v>166</v>
       </c>
       <c r="T79" s="1">
         <v>2.9</v>
@@ -8603,13 +8353,13 @@
         <v>0.5</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="W79" s="1">
         <v>0.6</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y79" t="s">
         <v>37</v>
@@ -8623,10 +8373,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D80" s="1">
         <v>11</v>
@@ -8635,7 +8385,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G80" s="1">
         <v>8</v>
@@ -8668,13 +8418,13 @@
         <v>19.32</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>447</v>
+        <v>550</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="T80" s="1">
         <v>3</v>
@@ -8683,13 +8433,13 @@
         <v>0</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="W80" s="1">
         <v>0.6</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y80" t="s">
         <v>38</v>
@@ -8703,10 +8453,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="D81" s="1">
         <v>12</v>
@@ -8715,7 +8465,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G81" s="1">
         <v>8</v>
@@ -8748,13 +8498,13 @@
         <v>13.55</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>426</v>
+        <v>529</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>537</v>
+        <v>223</v>
       </c>
       <c r="T81" s="1">
         <v>0</v>
@@ -8762,14 +8512,12 @@
       <c r="U81" s="1">
         <v>0</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V81" s="1"/>
       <c r="W81" s="1">
         <v>0.6</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y81" t="s">
         <v>39</v>
@@ -8783,10 +8531,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="D82" s="1">
         <v>13</v>
@@ -8795,7 +8543,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G82" s="1">
         <v>7</v>
@@ -8828,13 +8576,13 @@
         <v>11.85</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>377</v>
+        <v>480</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>538</v>
+        <v>224</v>
       </c>
       <c r="T82" s="1">
         <v>0</v>
@@ -8842,17 +8590,15 @@
       <c r="U82" s="1">
         <v>0</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V82" s="1"/>
       <c r="W82" s="1">
         <v>0.6</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y82" t="s">
-        <v>631</v>
+        <v>97</v>
       </c>
       <c r="Z82">
         <v>237</v>
@@ -8863,10 +8609,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="D83" s="1">
         <v>14</v>
@@ -8875,7 +8621,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G83" s="1">
         <v>7</v>
@@ -8908,13 +8654,13 @@
         <v>11.34</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>449</v>
+        <v>552</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>539</v>
+        <v>225</v>
       </c>
       <c r="T83" s="1">
         <v>0</v>
@@ -8922,17 +8668,15 @@
       <c r="U83" s="1">
         <v>0</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V83" s="1"/>
       <c r="W83" s="1">
         <v>0.6</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y83" t="s">
-        <v>632</v>
+        <v>98</v>
       </c>
       <c r="Z83">
         <v>238</v>
@@ -8943,10 +8687,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
       <c r="D84" s="1">
         <v>15</v>
@@ -8955,7 +8699,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G84" s="1">
         <v>7</v>
@@ -8988,13 +8732,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>379</v>
+        <v>482</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>540</v>
+        <v>168</v>
       </c>
       <c r="T84" s="1">
         <v>0</v>
@@ -9002,17 +8746,15 @@
       <c r="U84" s="1">
         <v>0</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V84" s="1"/>
       <c r="W84" s="1">
         <v>0.6</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y84" t="s">
-        <v>633</v>
+        <v>99</v>
       </c>
       <c r="Z84">
         <v>243</v>
@@ -9023,10 +8765,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>267</v>
+        <v>375</v>
       </c>
       <c r="D85" s="1">
         <v>16</v>
@@ -9035,7 +8777,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G85" s="1">
         <v>5</v>
@@ -9068,13 +8810,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>451</v>
+        <v>554</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>541</v>
+        <v>226</v>
       </c>
       <c r="T85" s="1">
         <v>0</v>
@@ -9082,17 +8824,15 @@
       <c r="U85" s="1">
         <v>0</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V85" s="1"/>
       <c r="W85" s="1">
         <v>0.6</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y85" t="s">
-        <v>634</v>
+        <v>100</v>
       </c>
       <c r="Z85">
         <v>265</v>
@@ -9103,10 +8843,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="D86" s="1">
         <v>17</v>
@@ -9115,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G86" s="1">
         <v>6</v>
@@ -9148,31 +8888,27 @@
         <v>0</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>381</v>
+        <v>484</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="S86" s="1"/>
       <c r="T86" s="1">
         <v>0</v>
       </c>
       <c r="U86" s="1">
         <v>0</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V86" s="1"/>
       <c r="W86" s="1">
         <v>0.6</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y86" t="s">
-        <v>635</v>
+        <v>101</v>
       </c>
       <c r="Z86">
         <v>266</v>
@@ -9183,10 +8919,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="D87" s="1">
         <v>18</v>
@@ -9195,7 +8931,7 @@
         <v>6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>294</v>
+        <v>53</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
@@ -9228,13 +8964,13 @@
         <v>9.23</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>543</v>
+        <v>227</v>
       </c>
       <c r="T87" s="1">
         <v>0</v>
@@ -9242,14 +8978,12 @@
       <c r="U87" s="1">
         <v>0</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V87" s="1"/>
       <c r="W87" s="1">
         <v>0.6</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y87" t="s">
         <v>40</v>
@@ -9263,10 +8997,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>270</v>
+        <v>378</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -9275,7 +9009,7 @@
         <v>7</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G88" s="1">
         <v>3</v>
@@ -9308,13 +9042,13 @@
         <v>0</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>544</v>
+        <v>169</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -9322,17 +9056,15 @@
       <c r="U88" s="1">
         <v>0</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V88" s="1"/>
       <c r="W88" s="1">
         <v>0.6</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y88" t="s">
-        <v>636</v>
+        <v>102</v>
       </c>
       <c r="Z88">
         <v>215</v>
@@ -9343,10 +9075,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -9355,7 +9087,7 @@
         <v>7</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G89" s="1">
         <v>4</v>
@@ -9388,13 +9120,13 @@
         <v>5.5</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="T89" s="1">
         <v>0</v>
@@ -9402,17 +9134,15 @@
       <c r="U89" s="1">
         <v>0</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V89" s="1"/>
       <c r="W89" s="1">
         <v>0.6</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y89" t="s">
-        <v>637</v>
+        <v>103</v>
       </c>
       <c r="Z89">
         <v>237</v>
@@ -9423,10 +9153,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -9435,7 +9165,7 @@
         <v>7</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G90" s="1">
         <v>10</v>
@@ -9468,13 +9198,13 @@
         <v>10.07</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>546</v>
+        <v>171</v>
       </c>
       <c r="T90" s="1">
         <v>0</v>
@@ -9482,14 +9212,12 @@
       <c r="U90" s="1">
         <v>0</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V90" s="1"/>
       <c r="W90" s="1">
         <v>0.6</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y90" t="s">
         <v>41</v>
@@ -9503,10 +9231,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
@@ -9515,7 +9243,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G91" s="1">
         <v>10</v>
@@ -9548,13 +9276,13 @@
         <v>11.72</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>427</v>
+        <v>530</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>547</v>
+        <v>172</v>
       </c>
       <c r="T91" s="1">
         <v>0</v>
@@ -9562,14 +9290,12 @@
       <c r="U91" s="1">
         <v>0</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V91" s="1"/>
       <c r="W91" s="1">
         <v>0.6</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y91" t="s">
         <v>42</v>
@@ -9583,10 +9309,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
@@ -9595,7 +9321,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G92" s="1">
         <v>10</v>
@@ -9628,13 +9354,13 @@
         <v>15.37</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>452</v>
+        <v>555</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>548</v>
+        <v>173</v>
       </c>
       <c r="T92" s="1">
         <v>0</v>
@@ -9642,14 +9368,12 @@
       <c r="U92" s="1">
         <v>0</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V92" s="1"/>
       <c r="W92" s="1">
         <v>0.6</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y92" t="s">
         <v>43</v>
@@ -9663,10 +9387,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>383</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -9675,7 +9399,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G93" s="1">
         <v>10</v>
@@ -9708,13 +9432,13 @@
         <v>18.97</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>549</v>
+        <v>174</v>
       </c>
       <c r="T93" s="1">
         <v>0</v>
@@ -9722,14 +9446,12 @@
       <c r="U93" s="1">
         <v>0</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V93" s="1"/>
       <c r="W93" s="1">
         <v>0.6</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y93" t="s">
         <v>44</v>
@@ -9743,10 +9465,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -9755,7 +9477,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G94" s="1">
         <v>10</v>
@@ -9788,13 +9510,13 @@
         <v>20.48</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>550</v>
+        <v>175</v>
       </c>
       <c r="T94" s="1">
         <v>0</v>
@@ -9802,14 +9524,12 @@
       <c r="U94" s="1">
         <v>0</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V94" s="1"/>
       <c r="W94" s="1">
         <v>0.6</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y94" t="s">
         <v>45</v>
@@ -9823,10 +9543,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>277</v>
+        <v>385</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
@@ -9835,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G95" s="1">
         <v>10</v>
@@ -9868,13 +9588,13 @@
         <v>19.739999999999998</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>455</v>
+        <v>558</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>551</v>
+        <v>228</v>
       </c>
       <c r="T95" s="1">
         <v>0</v>
@@ -9882,14 +9602,12 @@
       <c r="U95" s="1">
         <v>0</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V95" s="1"/>
       <c r="W95" s="1">
         <v>0.6</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y95" t="s">
         <v>46</v>
@@ -9903,10 +9621,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
@@ -9915,7 +9633,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G96" s="1">
         <v>10</v>
@@ -9948,13 +9666,13 @@
         <v>13.67</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>456</v>
+        <v>559</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>552</v>
+        <v>176</v>
       </c>
       <c r="T96" s="1">
         <v>0</v>
@@ -9962,14 +9680,12 @@
       <c r="U96" s="1">
         <v>0</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V96" s="1"/>
       <c r="W96" s="1">
         <v>0.6</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y96" t="s">
         <v>47</v>
@@ -9983,10 +9699,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -9995,7 +9711,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G97" s="1">
         <v>10</v>
@@ -10028,13 +9744,13 @@
         <v>13.51</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>553</v>
+        <v>177</v>
       </c>
       <c r="T97" s="1">
         <v>0</v>
@@ -10042,14 +9758,12 @@
       <c r="U97" s="1">
         <v>0</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V97" s="1"/>
       <c r="W97" s="1">
         <v>0.6</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Y97" t="s">
         <v>48</v>
@@ -10063,10 +9777,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -10075,7 +9789,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G98" s="1">
         <v>10</v>
@@ -10108,13 +9822,13 @@
         <v>13.25</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>554</v>
+        <v>178</v>
       </c>
       <c r="T98" s="1">
         <v>0</v>
@@ -10122,14 +9836,12 @@
       <c r="U98" s="1">
         <v>0</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V98" s="1"/>
       <c r="W98" s="1">
         <v>0.6</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -10140,10 +9852,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -10152,7 +9864,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G99" s="1">
         <v>10</v>
@@ -10185,13 +9897,13 @@
         <v>15.1</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>394</v>
+        <v>497</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>440</v>
+        <v>543</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>555</v>
+        <v>179</v>
       </c>
       <c r="T99" s="1">
         <v>0</v>
@@ -10199,14 +9911,12 @@
       <c r="U99" s="1">
         <v>0</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V99" s="1"/>
       <c r="W99" s="1">
         <v>0.6</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -10217,10 +9927,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -10229,7 +9939,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G100" s="1">
         <v>10</v>
@@ -10262,13 +9972,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>556</v>
+        <v>180</v>
       </c>
       <c r="T100" s="1">
         <v>0</v>
@@ -10276,14 +9986,12 @@
       <c r="U100" s="1">
         <v>0</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V100" s="1"/>
       <c r="W100" s="1">
         <v>0.6</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -10294,10 +10002,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -10306,7 +10014,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G101" s="1">
         <v>10</v>
@@ -10339,13 +10047,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>557</v>
+        <v>229</v>
       </c>
       <c r="T101" s="1">
         <v>0</v>
@@ -10353,14 +10061,12 @@
       <c r="U101" s="1">
         <v>0</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V101" s="1"/>
       <c r="W101" s="1">
         <v>0.6</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z101">
         <v>0</v>
@@ -10371,10 +10077,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>284</v>
+        <v>392</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
@@ -10383,7 +10089,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G102" s="1">
         <v>10</v>
@@ -10416,13 +10122,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>558</v>
+        <v>181</v>
       </c>
       <c r="T102" s="1">
         <v>0</v>
@@ -10430,14 +10136,12 @@
       <c r="U102" s="1">
         <v>0</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V102" s="1"/>
       <c r="W102" s="1">
         <v>0.6</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z102">
         <v>0</v>
@@ -10448,10 +10152,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -10460,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="G103" s="1">
         <v>10</v>
@@ -10493,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>457</v>
+        <v>560</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>559</v>
+        <v>182</v>
       </c>
       <c r="T103" s="1">
         <v>0</v>
@@ -10507,14 +10211,12 @@
       <c r="U103" s="1">
         <v>0</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V103" s="1"/>
       <c r="W103" s="1">
         <v>0.6</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z103">
         <v>0</v>
@@ -10525,10 +10227,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -10537,7 +10239,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G104" s="1">
         <v>10</v>
@@ -10570,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>560</v>
+        <v>230</v>
       </c>
       <c r="T104" s="1">
         <v>0</v>
@@ -10584,14 +10286,12 @@
       <c r="U104" s="1">
         <v>0</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V104" s="1"/>
       <c r="W104" s="1">
         <v>0.6</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z104">
         <v>0</v>
@@ -10602,10 +10302,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -10614,7 +10314,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G105" s="1">
         <v>8</v>
@@ -10647,13 +10347,13 @@
         <v>0</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>407</v>
+        <v>510</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>561</v>
+        <v>231</v>
       </c>
       <c r="T105" s="1">
         <v>0</v>
@@ -10661,14 +10361,12 @@
       <c r="U105" s="1">
         <v>0</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V105" s="1"/>
       <c r="W105" s="1">
         <v>0.6</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z105">
         <v>0</v>
@@ -10679,10 +10377,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -10691,7 +10389,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G106" s="1">
         <v>8</v>
@@ -10724,28 +10422,24 @@
         <v>0</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="S106" s="1"/>
       <c r="T106" s="1">
         <v>0</v>
       </c>
       <c r="U106" s="1">
         <v>0</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V106" s="1"/>
       <c r="W106" s="1">
         <v>0.6</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z106">
         <v>0</v>
@@ -10756,10 +10450,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="D107" s="1">
         <v>6</v>
@@ -10768,7 +10462,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G107" s="1">
         <v>8</v>
@@ -10801,28 +10495,24 @@
         <v>0</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="S107" s="1"/>
       <c r="T107" s="1">
         <v>0</v>
       </c>
       <c r="U107" s="1">
         <v>0</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V107" s="1"/>
       <c r="W107" s="1">
         <v>0.6</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z107">
         <v>0</v>
@@ -10833,10 +10523,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -10845,7 +10535,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G108" s="1">
         <v>8</v>
@@ -10878,28 +10568,24 @@
         <v>0</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="S108" s="1"/>
       <c r="T108" s="1">
         <v>0</v>
       </c>
       <c r="U108" s="1">
         <v>0</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V108" s="1"/>
       <c r="W108" s="1">
         <v>0.6</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z108">
         <v>0</v>
@@ -10910,10 +10596,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>291</v>
+        <v>398</v>
       </c>
       <c r="D109" s="1">
         <v>8</v>
@@ -10922,7 +10608,7 @@
         <v>7</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G109" s="1">
         <v>8</v>
@@ -10955,28 +10641,24 @@
         <v>0</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>404</v>
+        <v>507</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="S109" s="1"/>
       <c r="T109" s="1">
         <v>0</v>
       </c>
       <c r="U109" s="1">
         <v>0</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V109" s="1"/>
       <c r="W109" s="1">
         <v>0.6</v>
       </c>
       <c r="X109" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z109">
         <v>0</v>
@@ -10987,10 +10669,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="D110" s="1">
         <v>9</v>
@@ -10999,7 +10681,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>295</v>
+        <v>54</v>
       </c>
       <c r="G110" s="1">
         <v>8</v>
@@ -11032,28 +10714,24 @@
         <v>0</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>405</v>
+        <v>508</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="S110" s="1"/>
       <c r="T110" s="1">
         <v>0</v>
       </c>
       <c r="U110" s="1">
         <v>0</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="V110" s="1"/>
       <c r="W110" s="1">
         <v>0.6</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>590</v>
+        <v>56</v>
       </c>
       <c r="Z110">
         <v>0</v>
